--- a/api/docs/fe_ecode/zh_en.xlsx
+++ b/api/docs/fe_ecode/zh_en.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>code</t>
+  </si>
   <si>
     <t>zh</t>
   </si>
@@ -24,28 +27,58 @@
     <t>en</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>unknow error</t>
   </si>
   <si>
+    <t>16050030</t>
+  </si>
+  <si>
     <t>产品不存在(中文注释)</t>
   </si>
   <si>
+    <t>product not found(English comment)</t>
+  </si>
+  <si>
+    <t>16050033</t>
+  </si>
+  <si>
     <t>product module not found</t>
   </si>
   <si>
+    <t>16050031</t>
+  </si>
+  <si>
     <t>saas device bind fail</t>
   </si>
   <si>
+    <t>16050032</t>
+  </si>
+  <si>
     <t>product app found fail</t>
   </si>
   <si>
+    <t>16050016</t>
+  </si>
+  <si>
     <t>register device limit</t>
   </si>
   <si>
+    <t>16050017</t>
+  </si>
+  <si>
     <t>register device single faile</t>
   </si>
   <si>
+    <t>16050018</t>
+  </si>
+  <si>
     <t>批量注册失败</t>
+  </si>
+  <si>
+    <t>Register device batch fail !</t>
   </si>
 </sst>
 </file>
@@ -412,7 +445,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -422,6 +455,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -431,69 +465,96 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
